--- a/Docs/Report1_Software requirement Specs + Project Plan_17052017/TOS_RiskManagement_v1.0_EN.xlsx
+++ b/Docs/Report1_Software requirement Specs + Project Plan_17052017/TOS_RiskManagement_v1.0_EN.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FlyingColors\Docs\Report1_Software requirement Specs + Project Plan_17052017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="3975" activeTab="2"/>
   </bookViews>
@@ -56,8 +61,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="rau - Personal View" guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" mergeInterval="0" personalView="1" maximized="1" windowWidth="796" windowHeight="464" activeSheetId="1"/>
     <customWorkbookView name="hanght - Personal View" guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1012" windowHeight="571" activeSheetId="1"/>
-    <customWorkbookView name="rau - Personal View" guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" mergeInterval="0" personalView="1" maximized="1" windowWidth="796" windowHeight="464" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -71,7 +76,7 @@
     <author>Use</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="1">
+    <comment ref="E3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1">
+    <comment ref="F3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="G3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1">
+    <comment ref="H3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="2">
+    <comment ref="I3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1">
+    <comment ref="K3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1">
+    <comment ref="L3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1">
+    <comment ref="M3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="3">
+    <comment ref="N3" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1">
+    <comment ref="O3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1">
+    <comment ref="R3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="263">
   <si>
     <t>a- Risk assessment:</t>
   </si>
@@ -1964,11 +1969,14 @@
   <si>
     <t>R11</t>
   </si>
+  <si>
+    <t>abvc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2921,18 +2929,99 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2942,86 +3031,17 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3032,6 +3052,36 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3040,48 +3090,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3492,20 +3500,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="63" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="190"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="160"/>
       <c r="R1" s="64"/>
     </row>
     <row r="2" spans="1:18" s="69" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3623,161 +3631,161 @@
     <row r="9" spans="1:18" s="80" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="77"/>
       <c r="B9" s="78"/>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
       <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:18" s="80" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="77"/>
       <c r="B10" s="78"/>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
       <c r="L10" s="79"/>
     </row>
     <row r="11" spans="1:18" s="80" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="77"/>
       <c r="B11" s="78"/>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
       <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:18" s="80" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="77"/>
       <c r="B12" s="78"/>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
       <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="76"/>
       <c r="B13" s="73"/>
-      <c r="C13" s="191" t="s">
+      <c r="C13" s="161" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="191"/>
-      <c r="E13" s="191"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
       <c r="L13" s="74"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
-      <c r="C14" s="184" t="s">
+      <c r="C14" s="162" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:18" s="80" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="77"/>
       <c r="B15" s="78"/>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="163" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
       <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:18" s="80" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="77"/>
       <c r="B16" s="78"/>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
       <c r="L16" s="79"/>
     </row>
     <row r="17" spans="1:12" s="80" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="77"/>
       <c r="B17" s="78"/>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="163" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
       <c r="L17" s="79"/>
     </row>
     <row r="18" spans="1:12" s="80" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="77"/>
       <c r="B18" s="78"/>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
       <c r="L18" s="79"/>
     </row>
     <row r="19" spans="1:12" s="69" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3818,16 +3826,16 @@
       <c r="C21" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
       <c r="L21" s="92"/>
     </row>
     <row r="22" spans="1:12" s="93" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3836,16 +3844,16 @@
       <c r="C22" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="158" t="s">
+      <c r="D22" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
       <c r="L22" s="92"/>
     </row>
     <row r="23" spans="1:12" s="93" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3853,15 +3861,15 @@
       <c r="B23" s="94"/>
       <c r="C23" s="95"/>
       <c r="D23" s="84"/>
-      <c r="E23" s="158" t="s">
+      <c r="E23" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="184"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
       <c r="L23" s="96"/>
     </row>
     <row r="24" spans="1:12" s="93" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3885,15 +3893,15 @@
       <c r="D25" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
       <c r="L25" s="101"/>
     </row>
     <row r="26" spans="1:12" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -3903,15 +3911,15 @@
       <c r="D26" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="180" t="s">
+      <c r="E26" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="171"/>
       <c r="L26" s="107"/>
     </row>
     <row r="27" spans="1:12" s="108" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -3921,15 +3929,15 @@
       <c r="D27" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="180" t="s">
+      <c r="E27" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="182"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="171"/>
       <c r="L27" s="107"/>
     </row>
     <row r="28" spans="1:12" s="108" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3939,15 +3947,15 @@
       <c r="D28" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="180" t="s">
+      <c r="E28" s="169" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="182"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="171"/>
       <c r="L28" s="107"/>
     </row>
     <row r="29" spans="1:12" s="108" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3969,15 +3977,15 @@
       <c r="B30" s="94"/>
       <c r="C30" s="95"/>
       <c r="D30" s="84"/>
-      <c r="E30" s="184" t="s">
+      <c r="E30" s="162" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="184"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="162"/>
       <c r="L30" s="96"/>
     </row>
     <row r="31" spans="1:12" s="102" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3990,18 +3998,18 @@
       <c r="E31" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="165" t="s">
+      <c r="F31" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165" t="s">
+      <c r="G31" s="172"/>
+      <c r="H31" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165" t="s">
+      <c r="I31" s="172"/>
+      <c r="J31" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="165"/>
+      <c r="K31" s="172"/>
       <c r="L31" s="101"/>
     </row>
     <row r="32" spans="1:12" s="123" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4014,18 +4022,18 @@
       <c r="E32" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="187" t="s">
+      <c r="F32" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187" t="s">
+      <c r="G32" s="168"/>
+      <c r="H32" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187" t="s">
+      <c r="I32" s="168"/>
+      <c r="J32" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="187"/>
+      <c r="K32" s="168"/>
       <c r="L32" s="122"/>
     </row>
     <row r="33" spans="1:12" s="102" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
@@ -4038,18 +4046,18 @@
       <c r="E33" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="187" t="s">
+      <c r="F33" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187" t="s">
+      <c r="G33" s="168"/>
+      <c r="H33" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187" t="s">
+      <c r="I33" s="168"/>
+      <c r="J33" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="187"/>
+      <c r="K33" s="168"/>
       <c r="L33" s="101"/>
     </row>
     <row r="34" spans="1:12" s="102" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4062,18 +4070,18 @@
       <c r="E34" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="183" t="s">
+      <c r="F34" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183" t="s">
+      <c r="G34" s="167"/>
+      <c r="H34" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183" t="s">
+      <c r="I34" s="167"/>
+      <c r="J34" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="183"/>
+      <c r="K34" s="167"/>
       <c r="L34" s="101"/>
     </row>
     <row r="35" spans="1:12" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4095,15 +4103,15 @@
       <c r="B36" s="94"/>
       <c r="C36" s="95"/>
       <c r="D36" s="84"/>
-      <c r="E36" s="158" t="s">
+      <c r="E36" s="163" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="184"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="162"/>
       <c r="L36" s="96"/>
     </row>
     <row r="37" spans="1:12" s="108" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4126,10 +4134,10 @@
       <c r="C38" s="126"/>
       <c r="D38" s="126"/>
       <c r="E38" s="127"/>
-      <c r="F38" s="185" t="s">
+      <c r="F38" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="186"/>
+      <c r="G38" s="166"/>
       <c r="H38" s="128" t="s">
         <v>4</v>
       </c>
@@ -4143,10 +4151,10 @@
       <c r="B39" s="129"/>
       <c r="C39" s="129"/>
       <c r="D39" s="129"/>
-      <c r="F39" s="185" t="s">
+      <c r="F39" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="186"/>
+      <c r="G39" s="166"/>
       <c r="H39" s="133" t="s">
         <v>5</v>
       </c>
@@ -4160,10 +4168,10 @@
       <c r="B40" s="129"/>
       <c r="C40" s="129"/>
       <c r="D40" s="129"/>
-      <c r="F40" s="185" t="s">
+      <c r="F40" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="186"/>
+      <c r="G40" s="166"/>
       <c r="H40" s="134" t="s">
         <v>32</v>
       </c>
@@ -4178,10 +4186,10 @@
       <c r="C41" s="129"/>
       <c r="D41" s="129"/>
       <c r="E41" s="129"/>
-      <c r="F41" s="175" t="s">
+      <c r="F41" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="176"/>
+      <c r="G41" s="184"/>
       <c r="H41" s="135" t="s">
         <v>33</v>
       </c>
@@ -4195,15 +4203,15 @@
       <c r="B42" s="110"/>
       <c r="C42" s="112"/>
       <c r="D42" s="110"/>
-      <c r="E42" s="169" t="s">
+      <c r="E42" s="177" t="s">
         <v>154</v>
       </c>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="178"/>
       <c r="L42" s="107"/>
     </row>
     <row r="43" spans="1:12" s="88" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4228,16 +4236,16 @@
       <c r="C44" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="158" t="s">
+      <c r="D44" s="163" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="159"/>
-      <c r="F44" s="159"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="159"/>
-      <c r="I44" s="159"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="159"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
       <c r="L44" s="92"/>
     </row>
     <row r="45" spans="1:12" s="108" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4247,17 +4255,17 @@
       <c r="D45" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="171" t="s">
+      <c r="E45" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171" t="s">
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="K45" s="171"/>
+      <c r="K45" s="179"/>
       <c r="L45" s="107"/>
     </row>
     <row r="46" spans="1:12" s="108" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4267,17 +4275,17 @@
       <c r="D46" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="172" t="s">
+      <c r="E46" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="173"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="173"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="161" t="s">
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="182"/>
+      <c r="J46" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="K46" s="161"/>
+      <c r="K46" s="174"/>
       <c r="L46" s="107"/>
     </row>
     <row r="47" spans="1:12" s="69" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4287,15 +4295,15 @@
       <c r="D47" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="160" t="s">
+      <c r="E47" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="160"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="160"/>
-      <c r="J47" s="162"/>
-      <c r="K47" s="162"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
+      <c r="I47" s="188"/>
+      <c r="J47" s="189"/>
+      <c r="K47" s="189"/>
       <c r="L47" s="68"/>
     </row>
     <row r="48" spans="1:12" s="69" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4305,15 +4313,15 @@
       <c r="D48" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="160" t="s">
+      <c r="E48" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="160"/>
-      <c r="J48" s="162"/>
-      <c r="K48" s="162"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
+      <c r="I48" s="188"/>
+      <c r="J48" s="189"/>
+      <c r="K48" s="189"/>
       <c r="L48" s="68"/>
     </row>
     <row r="49" spans="1:12" s="108" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4323,17 +4331,17 @@
       <c r="D49" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="161" t="s">
+      <c r="E49" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161" t="s">
+      <c r="F49" s="174"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="174"/>
+      <c r="I49" s="174"/>
+      <c r="J49" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="161"/>
+      <c r="K49" s="174"/>
       <c r="L49" s="107"/>
     </row>
     <row r="50" spans="1:12" s="146" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4341,15 +4349,15 @@
       <c r="B50" s="94"/>
       <c r="C50" s="95"/>
       <c r="D50" s="84"/>
-      <c r="E50" s="167" t="s">
+      <c r="E50" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="168"/>
-      <c r="I50" s="168"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="168"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="176"/>
       <c r="L50" s="145"/>
     </row>
     <row r="51" spans="1:12" s="146" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4357,15 +4365,15 @@
       <c r="B51" s="94"/>
       <c r="C51" s="95"/>
       <c r="D51" s="84"/>
-      <c r="E51" s="163" t="s">
+      <c r="E51" s="190" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="164"/>
-      <c r="G51" s="164"/>
-      <c r="H51" s="164"/>
-      <c r="I51" s="164"/>
-      <c r="J51" s="164"/>
-      <c r="K51" s="164"/>
+      <c r="F51" s="191"/>
+      <c r="G51" s="191"/>
+      <c r="H51" s="191"/>
+      <c r="I51" s="191"/>
+      <c r="J51" s="191"/>
+      <c r="K51" s="191"/>
       <c r="L51" s="145"/>
     </row>
     <row r="52" spans="1:12" s="149" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4373,15 +4381,15 @@
       <c r="B52" s="104"/>
       <c r="C52" s="105"/>
       <c r="D52" s="147"/>
-      <c r="E52" s="166" t="s">
+      <c r="E52" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="166"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="166"/>
-      <c r="I52" s="166"/>
-      <c r="J52" s="166"/>
-      <c r="K52" s="166"/>
+      <c r="F52" s="173"/>
+      <c r="G52" s="173"/>
+      <c r="H52" s="173"/>
+      <c r="I52" s="173"/>
+      <c r="J52" s="173"/>
+      <c r="K52" s="173"/>
       <c r="L52" s="148"/>
     </row>
     <row r="53" spans="1:12" s="140" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4390,16 +4398,16 @@
       <c r="C53" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="158" t="s">
+      <c r="D53" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="159"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="159"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
       <c r="L53" s="92"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -4418,46 +4426,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E45:I45"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="E25:K25"/>
     <mergeCell ref="E26:K26"/>
@@ -4470,6 +4438,46 @@
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="E51:K51"/>
     <mergeCell ref="J47:K47"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.28000000000000003" right="0.18" top="0.38" bottom="0.63" header="0" footer="0.31"/>
@@ -4520,27 +4528,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="205"/>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205"/>
-      <c r="S1" s="205"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="192"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="E2" s="3"/>
@@ -4618,7 +4626,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="193" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="199" t="s">
@@ -4627,29 +4635,29 @@
       <c r="C4" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="202" t="s">
+      <c r="D4" s="193" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="192">
+      <c r="E4" s="196">
         <v>0.3</v>
       </c>
-      <c r="F4" s="192">
+      <c r="F4" s="196">
         <v>2</v>
       </c>
-      <c r="G4" s="192">
+      <c r="G4" s="196">
         <f>E4*F4</f>
         <v>0.6</v>
       </c>
-      <c r="H4" s="192">
+      <c r="H4" s="196">
         <v>4</v>
       </c>
-      <c r="I4" s="206" t="s">
+      <c r="I4" s="202" t="s">
         <v>230</v>
       </c>
-      <c r="J4" s="192" t="s">
+      <c r="J4" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="209"/>
+      <c r="K4" s="205"/>
       <c r="L4" s="7" t="s">
         <v>221</v>
       </c>
@@ -4673,17 +4681,17 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="203"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="200"/>
       <c r="C5" s="200"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="210"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="206"/>
       <c r="L5" s="8" t="s">
         <v>222</v>
       </c>
@@ -4707,17 +4715,17 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="2" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="204"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="201"/>
       <c r="C6" s="201"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="211"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="207"/>
       <c r="L6" s="8" t="s">
         <v>223</v>
       </c>
@@ -4741,7 +4749,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="196" t="s">
         <v>215</v>
       </c>
       <c r="B7" s="199" t="s">
@@ -4750,41 +4758,41 @@
       <c r="C7" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="192" t="s">
+      <c r="D7" s="196" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="192">
+      <c r="E7" s="196">
         <v>0.2</v>
       </c>
-      <c r="F7" s="192">
+      <c r="F7" s="196">
         <v>8</v>
       </c>
-      <c r="G7" s="192">
+      <c r="G7" s="196">
         <f>E7*F7</f>
         <v>1.6</v>
       </c>
-      <c r="H7" s="192">
+      <c r="H7" s="196">
         <v>3</v>
       </c>
-      <c r="I7" s="202" t="s">
+      <c r="I7" s="193" t="s">
         <v>231</v>
       </c>
-      <c r="J7" s="192" t="s">
+      <c r="J7" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192" t="s">
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="N7" s="192" t="s">
+      <c r="N7" s="196" t="s">
         <v>234</v>
       </c>
-      <c r="O7" s="192"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="196"/>
+      <c r="R7" s="196"/>
+      <c r="S7" s="196"/>
       <c r="T7" s="10" t="s">
         <v>122</v>
       </c>
@@ -4796,25 +4804,25 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="193"/>
+      <c r="A8" s="197"/>
       <c r="B8" s="200"/>
       <c r="C8" s="200"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="193"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="197"/>
       <c r="T8" s="10" t="s">
         <v>17</v>
       </c>
@@ -4826,25 +4834,25 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="194"/>
+      <c r="A9" s="198"/>
       <c r="B9" s="201"/>
       <c r="C9" s="201"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="194"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="194"/>
-      <c r="S9" s="194"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="198"/>
+      <c r="Q9" s="198"/>
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
       <c r="T9" s="10" t="s">
         <v>58</v>
       </c>
@@ -4853,7 +4861,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="196" t="s">
         <v>217</v>
       </c>
       <c r="B10" s="199" t="s">
@@ -4862,29 +4870,29 @@
       <c r="C10" s="199" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="192" t="s">
+      <c r="D10" s="196" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="192">
+      <c r="E10" s="196">
         <v>0.5</v>
       </c>
-      <c r="F10" s="192">
+      <c r="F10" s="196">
         <v>5</v>
       </c>
-      <c r="G10" s="192">
+      <c r="G10" s="196">
         <f>E10*F10</f>
         <v>2.5</v>
       </c>
-      <c r="H10" s="192">
+      <c r="H10" s="196">
         <v>1</v>
       </c>
-      <c r="I10" s="202" t="s">
+      <c r="I10" s="193" t="s">
         <v>233</v>
       </c>
-      <c r="J10" s="192" t="s">
+      <c r="J10" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="195"/>
+      <c r="K10" s="209"/>
       <c r="L10" s="8" t="s">
         <v>226</v>
       </c>
@@ -4905,54 +4913,54 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="193"/>
+      <c r="A11" s="197"/>
       <c r="B11" s="200"/>
       <c r="C11" s="200"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="192" t="s">
+      <c r="D11" s="197"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="M11" s="198"/>
-      <c r="N11" s="192" t="s">
+      <c r="M11" s="208"/>
+      <c r="N11" s="196" t="s">
         <v>254</v>
       </c>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
+      <c r="O11" s="208"/>
+      <c r="P11" s="208"/>
+      <c r="Q11" s="208"/>
+      <c r="R11" s="208"/>
+      <c r="S11" s="208"/>
       <c r="T11" s="14"/>
       <c r="U11" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="194"/>
+      <c r="A12" s="198"/>
       <c r="B12" s="201"/>
       <c r="C12" s="201"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="198"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="208"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="208"/>
+      <c r="P12" s="208"/>
+      <c r="Q12" s="208"/>
+      <c r="R12" s="208"/>
+      <c r="S12" s="208"/>
       <c r="T12" s="14"/>
       <c r="U12" s="11" t="s">
         <v>56</v>
@@ -6391,16 +6399,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" showRuler="0" topLeftCell="F1">
-      <selection activeCell="J14" sqref="J14"/>
+    <customSheetView guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" showPageBreaks="1" showRuler="0" topLeftCell="O1">
+      <selection activeCell="R3" sqref="R3"/>
       <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;L&amp;8 01fe-BM/PM/HDCV/FSOFT v1/0</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{76BCA86B-7D30-4D0C-A3AD-F5EB7D88CCD8}" showPageBreaks="1" showRuler="0" topLeftCell="O1">
-      <selection activeCell="R3" sqref="R3"/>
+    <customSheetView guid="{6AAB2365-435B-4727-BB0B-AAE57F204611}" showRuler="0" topLeftCell="F1">
+      <selection activeCell="J14" sqref="J14"/>
       <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0" footer="0"/>
       <pageSetup orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0">
@@ -6409,6 +6417,40 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="50">
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="D7:D9"/>
@@ -6425,40 +6467,6 @@
     <mergeCell ref="O7:O9"/>
     <mergeCell ref="P7:P9"/>
     <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="M11:M12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="6">
@@ -6494,11 +6502,11 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A4"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7417,7 +7425,9 @@
       <c r="C29" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="46" t="s">
+        <v>262</v>
+      </c>
       <c r="E29" s="47" t="s">
         <v>12</v>
       </c>
@@ -7882,6 +7892,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="253d622f20ce6cf415dd75a347d4701d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6913b3c7c53e7d5478d1a53b351a6d1" ns2:_="">
     <xsd:import namespace="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
@@ -7941,14 +7959,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7959,6 +7969,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4C8E2CD-F38F-41D1-821F-079AD38244FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF51A16E-A571-42E9-99B6-47CEA8978068}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7975,22 +8001,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4C8E2CD-F38F-41D1-821F-079AD38244FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DAA1354-1B65-433B-8B6C-AAF4E176B712}">
   <ds:schemaRefs>
